--- a/Personal/xueyu/beautiful life.xlsx
+++ b/Personal/xueyu/beautiful life.xlsx
@@ -16,9 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">这几个月过来，工作的节奏逐渐掌握，但是生活的节奏却越来越糟。而且在工作之后的充电上做得很不足，驱动学习计划也不能达到要求。因为以上种种，所以我立下了这个计划表，每天来统计我是否完成了相应的计划。
 基本的想法是：
 </t>
@@ -27,6 +32,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>1.回来先做20个俯卧撑，20个仰卧起坐，20个深蹲起。
@@ -37,6 +43,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 
@@ -48,6 +55,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>1.驱动学习周一到周六，至少学习五天，每天保证一个半小时以上。第一天不够的必须在第二天补上，不可以拖到第三天。
@@ -58,6 +66,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -69,6 +78,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>1.python small game study，简称PSGS？总之，进度一定要保持，我要自己做到，也要督促大家做到。</t>
@@ -77,6 +87,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -115,6 +126,15 @@
   </si>
   <si>
     <t>PSGS</t>
+  </si>
+  <si>
+    <t>2016/8/4  周四</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -123,11 +143,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,61 +156,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +215,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -222,6 +240,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -236,6 +261,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -244,47 +277,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -308,31 +333,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,6 +477,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -356,133 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +524,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,59 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +580,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,7 +644,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,128 +653,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,6 +794,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,7 +1146,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1223,9 +1251,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:1">
-      <c r="A5" s="6">
-        <v>42586</v>
+    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1"/>

--- a/Personal/xueyu/beautiful life.xlsx
+++ b/Personal/xueyu/beautiful life.xlsx
@@ -16,12 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">这几个月过来，工作的节奏逐渐掌握，但是生活的节奏却越来越糟。而且在工作之后的充电上做得很不足，驱动学习计划也不能达到要求。因为以上种种，所以我立下了这个计划表，每天来统计我是否完成了相应的计划。
@@ -136,6 +137,9 @@
   <si>
     <t>NONE</t>
   </si>
+  <si>
+    <t>2016-08-05 周五</t>
+  </si>
 </sst>
 </file>
 
@@ -144,8 +148,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -157,14 +161,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,6 +184,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -186,22 +213,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,98 +305,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -339,13 +343,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,13 +487,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,145 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,80 +528,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -620,7 +550,81 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,145 +636,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,7 +1150,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1286,7 +1290,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1"/>
+    <row r="6" s="1" customFormat="1" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="7" s="1" customFormat="1"/>
     <row r="8" s="1" customFormat="1"/>
     <row r="9" s="1" customFormat="1"/>

--- a/Personal/xueyu/beautiful life.xlsx
+++ b/Personal/xueyu/beautiful life.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <r>
       <rPr>
@@ -140,16 +140,22 @@
   <si>
     <t>2016-08-05 周五</t>
   </si>
+  <si>
+    <t>2016-08-06 周六</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -161,15 +167,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,20 +272,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -206,91 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +295,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -316,7 +322,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,43 +343,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,37 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,97 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +540,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -542,24 +569,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,17 +588,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,17 +640,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -636,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,137 +660,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,6 +813,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,7 +1165,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1280,7 +1295,7 @@
       <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1315,7 +1330,7 @@
       <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1325,7 +1340,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1"/>
+    <row r="7" s="1" customFormat="1" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="8" s="1" customFormat="1"/>
     <row r="9" s="1" customFormat="1"/>
     <row r="10" s="1" customFormat="1"/>

--- a/Personal/xueyu/beautiful life.xlsx
+++ b/Personal/xueyu/beautiful life.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <r>
       <rPr>
@@ -129,6 +129,9 @@
     <t>PSGS</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>2016/8/4  周四</t>
   </si>
   <si>
@@ -145,6 +148,21 @@
   </si>
   <si>
     <t>3 hours</t>
+  </si>
+  <si>
+    <t>洗衣服，之后要补上</t>
+  </si>
+  <si>
+    <t>2016-08-08 周日</t>
+  </si>
+  <si>
+    <t>团队计划阻塞</t>
+  </si>
+  <si>
+    <t>完成棋盘界面</t>
+  </si>
+  <si>
+    <t>牺牲此时间，进行团队完善</t>
   </si>
 </sst>
 </file>
@@ -152,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -167,7 +185,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,15 +235,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,54 +267,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,39 +290,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,13 +373,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,163 +487,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,36 +558,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,29 +578,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,6 +600,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -640,6 +632,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,13 +1182,17 @@
   <sheetPr/>
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1235,7 +1257,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+    <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1268,11 +1290,14 @@
       </c>
       <c r="K4" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -1284,30 +1309,30 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
@@ -1319,30 +1344,30 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:11">
+    <row r="7" s="1" customFormat="1" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>20</v>
@@ -1354,28 +1379,68 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1"/>
     <row r="9" s="1" customFormat="1"/>
     <row r="10" s="1" customFormat="1"/>
     <row r="11" s="1" customFormat="1"/>

--- a/Personal/xueyu/beautiful life.xlsx
+++ b/Personal/xueyu/beautiful life.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <r>
       <rPr>
@@ -164,6 +164,12 @@
   <si>
     <t>牺牲此时间，进行团队完善</t>
   </si>
+  <si>
+    <t>2016-08-09 周一</t>
+  </si>
+  <si>
+    <t>处理团队建设内容</t>
+  </si>
 </sst>
 </file>
 
@@ -171,11 +177,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +191,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -192,28 +234,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,86 +325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,43 +386,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,133 +542,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,40 +574,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -624,6 +613,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -633,16 +646,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -666,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,137 +691,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,6 +847,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,8 +1198,8 @@
   <sheetPr/>
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1441,7 +1457,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1"/>
+    <row r="9" s="1" customFormat="1" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="10" s="1" customFormat="1"/>
     <row r="11" s="1" customFormat="1"/>
     <row r="12" s="1" customFormat="1"/>

--- a/Personal/xueyu/beautiful life.xlsx
+++ b/Personal/xueyu/beautiful life.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8955"/>
+    <workbookView windowWidth="20385" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="版本说明" sheetId="1" r:id="rId1"/>
+    <sheet name="计划执行情况" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <r>
       <rPr>
@@ -96,6 +96,85 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">v2.0  2016-08-29 23:23:47  明日起生效。
+重新调整一下计划，发布2.0版本。
+关于生活上的：
+每天做俯卧撑啊，还有洗澡洗衣服啊，还有收拾房间啊，其实不太现实，主要是工作得太晚，晚上又要学习又要干这些，忙不过来。调整为一周分开执行这三个内容。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1.一周至少两次运动，包括俯卧撑，仰卧起坐和深蹲起，每次各不低于30个。
+2.一周至少三次洗衣服，周一到周五两次，周末一次大清除。
+3.一周至少收拾房间和打扫地板两次。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+LDD：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 每周至少看六小节，必须保障六天中有看过一小节，不能堆在一起搞。
+2. 每周一次总结。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+OOC：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. 计划及时给出。
+2. 要有耐心。
+3. 每次一个项目结束后，安排团队改进总结会议。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <t>TMIE</t>
   </si>
   <si>
@@ -169,6 +248,9 @@
   </si>
   <si>
     <t>处理团队建设内容</t>
+  </si>
+  <si>
+    <t>V2.0</t>
   </si>
 </sst>
 </file>
@@ -176,12 +258,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +286,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -213,66 +341,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,73 +409,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,19 +468,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,163 +654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,32 +668,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +712,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -661,13 +751,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,178 +773,181 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1196,10 +1293,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:XFD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1212,260 +1309,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
     </row>
-    <row r="3" ht="202" customHeight="1" spans="1:18">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+    <row r="3" ht="196" customHeight="1" spans="1:18">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="9" customFormat="1" ht="251" customHeight="1" spans="1:1">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1"/>
     <row r="11" s="1" customFormat="1"/>
     <row r="12" s="1" customFormat="1"/>
     <row r="13" s="1" customFormat="1"/>
@@ -1504,8 +1413,10 @@
     <row r="46" s="1" customFormat="1"/>
     <row r="47" s="1" customFormat="1"/>
     <row r="48" s="1" customFormat="1"/>
+    <row r="49" s="1" customFormat="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A4:XFD4"/>
     <mergeCell ref="A1:R3"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1517,14 +1428,212 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
